--- a/data/Geodata/GPS coordinate sampling points.xlsx
+++ b/data/Geodata/GPS coordinate sampling points.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frédéric\Documents\CIMMYT\0. Publi\Wood and Baudron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/GitHub/arsi_gradient/data/Geodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D4D88F-4232-2B45-B325-12872B748471}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" activeTab="2"/>
+    <workbookView xWindow="34240" yWindow="3200" windowWidth="25160" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wheat" sheetId="3" r:id="rId1"/>
-    <sheet name="Homegarden" sheetId="1" r:id="rId2"/>
-    <sheet name="Forest" sheetId="2" r:id="rId3"/>
+    <sheet name="All" sheetId="4" r:id="rId1"/>
+    <sheet name="Wheat" sheetId="3" r:id="rId2"/>
+    <sheet name="Homegarden" sheetId="1" r:id="rId3"/>
+    <sheet name="Forest" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="59">
   <si>
     <t>Lat</t>
   </si>
@@ -37,246 +39,84 @@
     <t>E1HR1F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.299083°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.799960°</t>
-  </si>
-  <si>
     <t>E1HR2F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.298135°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.806935°</t>
-  </si>
-  <si>
     <t>E1HR3F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.302957°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.799024°</t>
-  </si>
-  <si>
     <t>E1LP1F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.292259°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.803881°</t>
-  </si>
-  <si>
     <t>E1LP2F3</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.293414°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.802237°</t>
-  </si>
-  <si>
     <t>E1LP3F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.300797°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.803426°</t>
-  </si>
-  <si>
     <t>E1LR1F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.296110°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.799702°</t>
-  </si>
-  <si>
     <t>E1LR2F3</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.300438°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.795409°</t>
-  </si>
-  <si>
     <t>E1LR3</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.303143°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.795044°</t>
-  </si>
-  <si>
     <t>E2HR1F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.303089°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.757040°</t>
-  </si>
-  <si>
     <t>E2HR2F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.309824°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.772037°</t>
-  </si>
-  <si>
     <t>E2HR3F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.310474°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.769613°</t>
-  </si>
-  <si>
     <t>E2LP1F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.303377°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.743711°</t>
-  </si>
-  <si>
     <t>E2LP2F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.311912°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.773765°</t>
-  </si>
-  <si>
     <t>E2LP3F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.311891°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.769734°</t>
-  </si>
-  <si>
     <t>E2LR1F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.310768°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.761438°</t>
-  </si>
-  <si>
     <t>E2LR2F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.312267°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.770658°</t>
-  </si>
-  <si>
     <t>E2LR3F3</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.302817°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.760353°</t>
-  </si>
-  <si>
     <t>E3HR1F3</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.324289°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.725886°</t>
-  </si>
-  <si>
     <t>E3HR2F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.326611°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.723413°</t>
-  </si>
-  <si>
     <t>E3LP1F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.329250°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.725537°</t>
-  </si>
-  <si>
     <t>E3LP2F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.334253°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.724046°</t>
-  </si>
-  <si>
     <t>E3LR1F1</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.324376°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.724550°</t>
-  </si>
-  <si>
     <t>E3LR2F1</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.323640°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.725880°</t>
-  </si>
-  <si>
     <t>E3LR3F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.324428°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.723759°</t>
-  </si>
-  <si>
     <t>E3LR4F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.323475°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.723848°</t>
-  </si>
-  <si>
     <t>E3LR5F2</t>
   </si>
   <si>
-    <t xml:space="preserve">  7.325011°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38.725437°</t>
-  </si>
-  <si>
     <t>Farm ID</t>
   </si>
   <si>
@@ -344,12 +184,36 @@
   </si>
   <si>
     <t>Forest 3</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Homegarden</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Forest1</t>
+  </si>
+  <si>
+    <t>Forest2</t>
+  </si>
+  <si>
+    <t>Forest3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,8 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,16 +525,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1DC48-0C02-AA4F-89D5-F058A5C20A4F}">
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -677,322 +544,715 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>7.2990830000000004</v>
+      </c>
+      <c r="C2" s="1">
+        <v>38.799959999999999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1">
+        <v>7.2981350000000003</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38.806935000000003</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B4" s="1">
+        <v>7.3029570000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38.799024000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1">
+        <v>7.2922589999999996</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38.803880999999997</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" s="1">
+        <v>7.2934140000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>38.802236999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B7" s="1">
+        <v>7.3007970000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>38.803426000000002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" s="1">
+        <v>7.2961099999999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>38.799702000000003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B9" s="1">
+        <v>7.3004379999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38.795408999999999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B10" s="1">
+        <v>7.3031430000000004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38.795043999999997</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" s="1">
+        <v>7.3030889999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38.757040000000003</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B12" s="1">
+        <v>7.3098239999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38.772036999999997</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B13" s="1">
+        <v>7.3104740000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>38.769613</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" s="1">
+        <v>7.3033770000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>38.743710999999998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B15" s="1">
+        <v>7.3119120000000004</v>
+      </c>
+      <c r="C15" s="1">
+        <v>38.773764999999997</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B16" s="1">
+        <v>7.3118910000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>38.769734</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B17" s="1">
+        <v>7.3107680000000004</v>
+      </c>
+      <c r="C17" s="1">
+        <v>38.761437999999998</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B18" s="1">
+        <v>7.3122670000000003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>38.770657999999997</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="B19" s="1">
+        <v>7.3028170000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>38.760353000000002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B20" s="1">
+        <v>7.3242890000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>38.725886000000003</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B21" s="1">
+        <v>7.3266109999999998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>38.723413000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="B22" s="1">
+        <v>7.32925</v>
+      </c>
+      <c r="C22" s="1">
+        <v>38.725537000000003</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B23" s="1">
+        <v>7.3342530000000004</v>
+      </c>
+      <c r="C23" s="1">
+        <v>38.724046000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B24" s="1">
+        <v>7.324376</v>
+      </c>
+      <c r="C24" s="1">
+        <v>38.724550000000001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="B25" s="1">
+        <v>7.3236400000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>38.725879999999997</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B26" s="1">
+        <v>7.3244280000000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>38.723759000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B27" s="1">
+        <v>7.3234750000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>38.723847999999997</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B28" s="1">
+        <v>7.3250109999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>38.725436999999999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B29" s="1">
+        <v>7.2967599999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>38.803640000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B30" s="1">
+        <v>7.2962800000000003</v>
+      </c>
+      <c r="C30" s="1">
+        <v>38.808011</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B31" s="1">
+        <v>7.3024699999999996</v>
+      </c>
+      <c r="C31" s="1">
+        <v>38.798540000000003</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B32" s="1">
+        <v>7.2920333333333334</v>
+      </c>
+      <c r="C32" s="1">
+        <v>38.80448333333333</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="B33" s="1">
+        <v>7.2928300000000004</v>
+      </c>
+      <c r="C33" s="1">
+        <v>38.802759999999999</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B34" s="1">
+        <v>7.3011200000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>38.803339999999999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B35" s="1">
+        <v>7.2940500000000004</v>
+      </c>
+      <c r="C35" s="1">
+        <v>38.803629999999998</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="B36" s="1">
+        <v>7.3005500000000003</v>
+      </c>
+      <c r="C36" s="1">
+        <v>38.799183333333332</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B37" s="1">
+        <v>7.3110499999999998</v>
+      </c>
+      <c r="C37" s="1">
+        <v>38.756549999999997</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B38" s="1">
+        <v>7.3156800000000004</v>
+      </c>
+      <c r="C38" s="1">
+        <v>38.770989999999998</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="B39" s="1">
+        <v>7.31168</v>
+      </c>
+      <c r="C39" s="1">
+        <v>38.767479999999999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B40" s="1">
+        <v>7.3068900000000001</v>
+      </c>
+      <c r="C40" s="1">
+        <v>38.764679999999998</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B41" s="1">
+        <v>7.3117299999999998</v>
+      </c>
+      <c r="C41" s="1">
+        <v>38.765720000000002</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="B42" s="1">
+        <v>7.3506900000000002</v>
+      </c>
+      <c r="C42" s="1">
+        <v>38.761940000000003</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B43" s="1">
+        <v>7.31332</v>
+      </c>
+      <c r="C43" s="1">
+        <v>38.770119999999999</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B44" s="1">
+        <v>7.30314</v>
+      </c>
+      <c r="C44" s="1">
+        <v>38.760570000000001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="B45" s="1">
+        <v>7.32599</v>
+      </c>
+      <c r="C45" s="1">
+        <v>38.729349999999997</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B46" s="1">
+        <v>7.3284200000000004</v>
+      </c>
+      <c r="C46" s="1">
+        <v>38.727939999999997</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B47" s="1">
+        <v>7.3331200000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>38.724060000000001</v>
+      </c>
+      <c r="D47" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7.2907929999999999</v>
+      </c>
+      <c r="C48" s="1">
+        <v>38.808376000000003</v>
+      </c>
+      <c r="D48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B49" s="1">
+        <v>7.2889549999999996</v>
+      </c>
+      <c r="C49" s="1">
+        <v>38.810819000000002</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
+      <c r="B50" s="1">
+        <v>7.2847410000000004</v>
+      </c>
+      <c r="C50" s="1">
+        <v>38.811242</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1000,214 +1260,305 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>7.2967599999999999</v>
+        <v>7.2990830000000004</v>
       </c>
       <c r="C2">
-        <v>38.803640000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.799959999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>7.2962800000000003</v>
+        <v>7.2981350000000003</v>
       </c>
       <c r="C3">
-        <v>38.808011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.806935000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>7.3024699999999996</v>
+        <v>7.3029570000000001</v>
       </c>
       <c r="C4">
-        <v>38.798540000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.799024000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>7.2920333333333334</v>
+        <v>7.2922589999999996</v>
       </c>
       <c r="C5">
-        <v>38.80448333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.803880999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>7.2928300000000004</v>
+        <v>7.2934140000000003</v>
       </c>
       <c r="C6">
-        <v>38.802759999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.802236999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>7.3011200000000001</v>
+        <v>7.3007970000000002</v>
       </c>
       <c r="C7">
-        <v>38.803339999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.803426000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>7.2940500000000004</v>
+        <v>7.2961099999999997</v>
       </c>
       <c r="C8">
-        <v>38.803629999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.799702000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>7.3005500000000003</v>
+        <v>7.3004379999999998</v>
       </c>
       <c r="C9">
-        <v>38.799183333333332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.795408999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>7.3110499999999998</v>
+        <v>7.3031430000000004</v>
       </c>
       <c r="C10">
-        <v>38.756549999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.795043999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>7.3156800000000004</v>
+        <v>7.3030889999999999</v>
       </c>
       <c r="C11">
-        <v>38.770989999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.757040000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>7.31168</v>
+        <v>7.3098239999999999</v>
       </c>
       <c r="C12">
-        <v>38.767479999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.772036999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>7.3068900000000001</v>
+        <v>7.3104740000000001</v>
       </c>
       <c r="C13">
-        <v>38.764679999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.769613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>7.3117299999999998</v>
+        <v>7.3033770000000002</v>
       </c>
       <c r="C14">
-        <v>38.765720000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.743710999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>7.3506900000000002</v>
+        <v>7.3119120000000004</v>
       </c>
       <c r="C15">
-        <v>38.761940000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.773764999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>7.31332</v>
+        <v>7.3118910000000001</v>
       </c>
       <c r="C16">
-        <v>38.770119999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.769734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>7.30314</v>
+        <v>7.3107680000000004</v>
       </c>
       <c r="C17">
-        <v>38.760570000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.761437999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>7.32599</v>
+        <v>7.3122670000000003</v>
       </c>
       <c r="C18">
-        <v>38.729349999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.770657999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>7.3284200000000004</v>
+        <v>7.3028170000000001</v>
       </c>
       <c r="C19">
-        <v>38.727939999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38.760353000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>7.3331200000000001</v>
+        <v>7.3242890000000003</v>
       </c>
       <c r="C20">
-        <v>38.724060000000001</v>
+        <v>38.725886000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>7.3266109999999998</v>
+      </c>
+      <c r="C21">
+        <v>38.723413000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>7.32925</v>
+      </c>
+      <c r="C22">
+        <v>38.725537000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>7.3342530000000004</v>
+      </c>
+      <c r="C23">
+        <v>38.724046000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>7.324376</v>
+      </c>
+      <c r="C24">
+        <v>38.724550000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>7.3236400000000001</v>
+      </c>
+      <c r="C25">
+        <v>38.725879999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>7.3244280000000002</v>
+      </c>
+      <c r="C26">
+        <v>38.723759000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>7.3234750000000002</v>
+      </c>
+      <c r="C27">
+        <v>38.723847999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>7.3250109999999999</v>
+      </c>
+      <c r="C28">
+        <v>38.725436999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1216,16 +1567,251 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>7.2967599999999999</v>
+      </c>
+      <c r="C2">
+        <v>38.803640000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>7.2962800000000003</v>
+      </c>
+      <c r="C3">
+        <v>38.808011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>7.3024699999999996</v>
+      </c>
+      <c r="C4">
+        <v>38.798540000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>7.2920333333333334</v>
+      </c>
+      <c r="C5">
+        <v>38.80448333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>7.2928300000000004</v>
+      </c>
+      <c r="C6">
+        <v>38.802759999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>7.3011200000000001</v>
+      </c>
+      <c r="C7">
+        <v>38.803339999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>7.2940500000000004</v>
+      </c>
+      <c r="C8">
+        <v>38.803629999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>7.3005500000000003</v>
+      </c>
+      <c r="C9">
+        <v>38.799183333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>7.3110499999999998</v>
+      </c>
+      <c r="C10">
+        <v>38.756549999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>7.3156800000000004</v>
+      </c>
+      <c r="C11">
+        <v>38.770989999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>7.31168</v>
+      </c>
+      <c r="C12">
+        <v>38.767479999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>7.3068900000000001</v>
+      </c>
+      <c r="C13">
+        <v>38.764679999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>7.3117299999999998</v>
+      </c>
+      <c r="C14">
+        <v>38.765720000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>7.3506900000000002</v>
+      </c>
+      <c r="C15">
+        <v>38.761940000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>7.31332</v>
+      </c>
+      <c r="C16">
+        <v>38.770119999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>7.30314</v>
+      </c>
+      <c r="C17">
+        <v>38.760570000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>7.32599</v>
+      </c>
+      <c r="C18">
+        <v>38.729349999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>7.3284200000000004</v>
+      </c>
+      <c r="C19">
+        <v>38.727939999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>7.3331200000000001</v>
+      </c>
+      <c r="C20">
+        <v>38.724060000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1233,9 +1819,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>7.2907929999999999</v>
@@ -1244,9 +1830,9 @@
         <v>38.808376000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>7.2889549999999996</v>
@@ -1255,9 +1841,9 @@
         <v>38.810819000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>7.2847410000000004</v>

--- a/data/Geodata/GPS coordinate sampling points.xlsx
+++ b/data/Geodata/GPS coordinate sampling points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/GitHub/arsi_gradient/data/Geodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D4D88F-4232-2B45-B325-12872B748471}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A10330-19A7-584C-8567-DD37EFDF4525}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34240" yWindow="3200" windowWidth="25160" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50440" yWindow="5320" windowWidth="25160" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="4" r:id="rId1"/>
@@ -212,7 +212,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,7 +245,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1DC48-0C02-AA4F-89D5-F058A5C20A4F}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,10 +1113,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="1">
-        <v>7.3506900000000002</v>
+        <v>7.3099055999999996</v>
       </c>
       <c r="C42" s="1">
-        <v>38.761940000000003</v>
+        <v>38.761994399999999</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
